--- a/static/template_sample2.xlsx
+++ b/static/template_sample2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luckystar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB840283-EB7C-4896-BCC2-9E5BD42CADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CEC2AE-3C1A-4833-B089-CE47110D39EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{03F3E0C0-0AF4-411F-BC03-58E1C1DFECBD}"/>
   </bookViews>
@@ -40,22 +40,22 @@
     <t>question</t>
   </si>
   <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option4</t>
-  </si>
-  <si>
     <t>marks</t>
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,22 +441,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
